--- a/Exel/Auswertung.xlsx
+++ b/Exel/Auswertung.xlsx
@@ -148,20 +148,290 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -198,29 +468,122 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -582,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:V44"/>
+  <dimension ref="B1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -594,776 +957,1375 @@
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15" customHeight="1">
+    <row r="1" spans="2:22" ht="16" thickBot="1"/>
+    <row r="2" spans="2:22" ht="15" customHeight="1" thickTop="1">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="2:22" ht="16" thickBot="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="2:22" ht="16" thickTop="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="8" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="1" t="s">
+      <c r="L7" s="26"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1" t="s">
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="45"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="47">
         <v>3.859</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="48">
         <v>2.4822E-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="33">
         <v>388.48140000000001</v>
       </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="31"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="D10" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="47">
         <v>7.6723999999999997</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="48">
         <v>5.0335999999999999E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="33">
         <v>399.46539999999999</v>
       </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="33"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="D11" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="47">
         <v>4.6116999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="48">
         <v>3.6281000000000001E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="33">
         <v>407.48869999999999</v>
       </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="33"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="C12" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="49">
         <v>4.4772999999999996</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="50">
         <v>2.1264999999999999E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="36">
         <v>322.2346</v>
       </c>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="36"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="D13" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="49">
         <v>7.6723999999999997</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="50">
         <v>5.0335999999999999E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="36">
         <v>417.255</v>
       </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="36"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="D14" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="49">
         <v>10.473699999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="50">
         <v>3.0270999999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="36">
         <v>448.44189999999998</v>
       </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="C15" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="47">
         <v>4.9025999999999996</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="48">
         <v>2.1264999999999999E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="33">
         <v>334.4255</v>
       </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="33"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="D16" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="47">
         <v>8.7561999999999998</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="48">
         <v>3.2952000000000002E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="33">
         <v>470.64640000000003</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="D17" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="33"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="16"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="47">
         <v>14.414999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="48">
         <v>3.3048000000000001E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="33">
         <v>526.49860000000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="C18" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="16"/>
+      <c r="C18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="49">
         <v>3.6496</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="50">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="36">
         <v>340.25060000000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="D19" t="s">
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="16"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="49">
         <v>8.0947999999999993</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="50">
         <v>3.2952000000000002E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="36">
         <v>376.43650000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="D20" t="s">
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="36"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="16"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="49">
         <v>5.9261999999999997</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="50">
         <v>3.5013000000000002E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="36">
         <v>377.50200000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="36"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="51">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="37">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="31">
         <v>65.978800000000007</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="D22" t="s">
+      <c r="H21" s="51"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="31"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="16"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="47">
         <v>2.5964</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="48">
         <v>0.14146</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="33">
         <v>71.052300000000002</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="D23" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="33"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="16"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="47">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="48">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="33">
         <v>72.843299999999999</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="C24" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="33"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="16"/>
+      <c r="C24" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="49">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="50">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="36">
         <v>65.978800000000007</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="D25" t="s">
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="36"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="16"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="49">
         <v>2.5964</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="50">
         <v>0.14146</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="36">
         <v>71.052300000000002</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="D26" t="s">
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="16"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="49">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="50">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="36">
         <v>72.843299999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="C27" t="s">
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="36"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="16"/>
+      <c r="C27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="47">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="48">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="33">
         <v>65.978800000000007</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="D28" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="33"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="16"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="47">
         <v>2.5964</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="48">
         <v>0.14146</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="33">
         <v>71.052300000000002</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="D29" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
+      <c r="V28" s="33"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="16"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="47">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="48">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="33">
         <v>72.843299999999999</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="C30" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
+      <c r="V29" s="33"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="16"/>
+      <c r="C30" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="49">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="50">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="36">
         <v>65.978800000000007</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="D31" t="s">
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="36"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="16"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="49">
         <v>2.5964</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="50">
         <v>0.14146</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="36">
         <v>71.052300000000002</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="D32" t="s">
+      <c r="H31" s="49"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="36"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="16"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="49">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="50">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="36">
         <v>72.843299999999999</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" t="s">
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="36"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="51">
         <v>1.8609</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="37">
         <v>0.12640000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="31">
         <v>101.5514</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="D34" t="s">
+      <c r="H33" s="51"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="31"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="16"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="47">
         <v>3.2997999999999998</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="48">
         <v>0.14237</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="33">
         <v>116.5962</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="D35" t="s">
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="V34" s="33"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="16"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="47">
         <v>2.9405999999999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="48">
         <v>0.1394</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="33">
         <v>119.0668</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="C36" t="s">
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="33"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="16"/>
+      <c r="C36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="49">
         <v>1.9263999999999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="50">
         <v>0.11772000000000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="36">
         <v>80.543899999999994</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="D37" t="s">
+      <c r="H36" s="49"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="36"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="16"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="49">
         <v>3.2997999999999998</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="50">
         <v>0.14237</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="36">
         <v>86.921999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="D38" t="s">
+      <c r="H37" s="49"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="36"/>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="16"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="49">
         <v>2.1882999999999999</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="50">
         <v>0.62268000000000001</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="36">
         <v>85.293800000000005</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="C39" t="s">
+      <c r="H38" s="49"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="36"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="16"/>
+      <c r="C39" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="52">
         <v>2.1621999999999999</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="48">
         <v>0.11391</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="33">
         <v>87.649900000000002</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="D40" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="16"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="52">
         <v>4.3025000000000002</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="48">
         <v>0.13730000000000001</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="33">
         <v>87.494</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="D41" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="33"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="16"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="52">
         <v>3.7422</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="48">
         <v>0.12828000000000001</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="33">
         <v>85.313400000000001</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="C42" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="33"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="16"/>
+      <c r="C42" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="49">
         <v>1.591</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="50">
         <v>0.12489</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="36">
         <v>81.382900000000006</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="D43" t="s">
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="36"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="36"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="16"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="49">
         <v>3.6429999999999998</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="50">
         <v>0.13492000000000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="36">
         <v>93.523799999999994</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="D44" t="s">
+      <c r="H43" s="49"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="36"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="17"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="39">
         <v>2.2545000000000002</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="40">
         <v>0.13508999999999999</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="41">
         <v>95.116100000000003</v>
       </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:V5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
@@ -1374,7 +2336,6 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:V7"/>
-    <mergeCell ref="B2:V5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Exel/Auswertung.xlsx
+++ b/Exel/Auswertung.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="0" windowWidth="14700" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="29920" yWindow="560" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blatt2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>Trajektorienauswertung</t>
   </si>
@@ -95,12 +96,15 @@
   <si>
     <t>Cross Track discts</t>
   </si>
+  <si>
+    <t>All</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -141,6 +145,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -435,7 +446,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -467,8 +478,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,6 +505,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,6 +568,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,25 +595,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -538,54 +613,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="49">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -601,6 +631,15 @@
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -616,11 +655,1458 @@
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0896550743657043"/>
+          <c:y val="0.0694444444444444"/>
+          <c:w val="0.715534339457568"/>
+          <c:h val="0.822469378827647"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$F$37:$F$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.432515979081929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.766949447995351</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.683463102847182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.447739686228937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.766949447995351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.508611272515979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.502545031958164</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.869773387565369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.369785008715863</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.846717024985473</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.523997675769901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$G$37:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.202993511916233</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.228640714331599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.223871009186099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.189053767585277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.228640714331599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.182935054923877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.220498490396351</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.206012719213721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.200568510310272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.216676302434637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.216949315860474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$H$37:$H$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.852894341663671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97925030319115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.676459768802051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.730027178021077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.716352501284993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.736140553034095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.734831203996412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.716517114762469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.683506233475662</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.785473364531507</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.798846529847111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$I$37:$I$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.488403832661833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9748404655181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.90733411203328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.313253222616264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.725617340348027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.224963773800972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.421620639916136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.955329694392763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.79230322154156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.253859752501797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.848866691951617</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.539793521477486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2089950920"/>
+        <c:axId val="2085752536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2089950920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2085752536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085752536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2089950920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$F$22:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.770468152636514</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.936449541946188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.770468152636514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.936449541946188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.770468152636514</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.936449541946188</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.770468152636514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.936449541946188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$G$22:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.652997313728262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.652997313728262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.652997313728262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.652997313728262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.814930015552099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$H$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$H$22:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.905763467607865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.975412975524173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.905763467607865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.975412975524173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.905763467607865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.975412975524173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.905763467607865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.975412975524173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$I$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$I$22:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.329228933972642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.911862517470361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.329228933972642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.911862517470361</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.329228933972642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.911862517470361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.814930015552099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.329228933972642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.911862517470361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.814930015552099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2090747880"/>
+        <c:axId val="2090750488"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2090747880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090750488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2090750488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2090747880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$F$8:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.267707249392993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.532251127297954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.319923690600069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.310600069372182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.532251127297954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72658342004856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.340104058272633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.607436697884148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.253180714533472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.561553936871315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41111342351717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$G$8:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.493126191989828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.720776382708201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.422461061665607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.601378734901462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.422461061665607</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.654640813731723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.656547997457088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.468849332485696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.654640813731723</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.695585664335664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$H$8:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.737858372272975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.758720725943051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.773959702836817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.612033156403455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.792509229844106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.851743765320553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63518782386126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89391766663767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.646251670944614</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.714981008496509</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.717004755568201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$I$8:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.498691813655796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.290971853241004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.814659776145087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.345094287441244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.32476035714206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.179705920270576</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3977529437995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.155995178253542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.656547997457088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.368281717963782</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.931175759099546</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.823703843421035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2091720152"/>
+        <c:axId val="2091114936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091720152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091114936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091114936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091720152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$F$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$F$51:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.490230460370479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.745216705746497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66779559781575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.509602636079211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.745216705746497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.745064897521513</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.537705747622437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.847962079943445</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.956591129188456</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.464477958628616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.781573501267659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64503703309569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$G$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$G$51:$G$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.449705672544775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.742880238110533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586525802482133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.421504047659715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.742880238110533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.805436250151187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.419464476772582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.625046434709358</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.559163577407636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.440805052174743</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.623772372055453</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.575821665249413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$H$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$H$51:$H$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.832172060514837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.904461334886125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.924653234278939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.731418797604457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.832649794463119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.856032088868515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.759030614834407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.868053948719418</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.905505704920823</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.745173790676047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.825289116184063</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.838617095138437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blatt2!$I$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>All</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Blatt2!$I$51:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.772108193430091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.392558278743155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.178974634576822</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.662525481343383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.320746738320149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.406533236541216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.716200839229426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.341062463372222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.421260411516916</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.650456801479407</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.230634989507175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.05947579348354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2091779944"/>
+        <c:axId val="2091929080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2091779944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091929080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2091929080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2091779944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -947,8 +2433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -959,134 +2445,134 @@
   <sheetData>
     <row r="1" spans="2:22" ht="16" thickBot="1"/>
     <row r="2" spans="2:22" ht="15" customHeight="1" thickTop="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="5"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="2:22" ht="16" thickBot="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="11"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="2:22" ht="16" thickTop="1">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="12" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="14"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="46" t="s">
@@ -1095,1233 +2581,1233 @@
       <c r="H7" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="58" t="s">
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="58" t="s">
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="27" t="s">
+      <c r="R7" s="57"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="28"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="55" t="s">
+      <c r="H8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="56" t="s">
+      <c r="J8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="22" t="s">
+      <c r="T8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="22" t="s">
+      <c r="U8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="26">
         <v>3.859</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="27">
         <v>2.4822E-2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="17">
         <v>388.48140000000001</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="31"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="15"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="16"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="26">
         <v>7.6723999999999997</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="27">
         <v>5.0335999999999999E-2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="17">
         <v>399.46539999999999</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="33"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="17"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="16"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="26">
         <v>4.6116999999999999</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="27">
         <v>3.6281000000000001E-2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="17">
         <v>407.48869999999999</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="33"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="17"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="16"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="28">
         <v>4.4772999999999996</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="29">
         <v>2.1264999999999999E-2</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="20">
         <v>322.2346</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="16"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="28">
         <v>7.6723999999999997</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="29">
         <v>5.0335999999999999E-2</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="20">
         <v>417.255</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="16"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="28">
         <v>10.473699999999999</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="29">
         <v>3.0270999999999999E-2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="20">
         <v>448.44189999999998</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="16"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="26">
         <v>4.9025999999999996</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="27">
         <v>2.1264999999999999E-2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="17">
         <v>334.4255</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="33"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="17"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="16"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="26">
         <v>8.7561999999999998</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="27">
         <v>3.2952000000000002E-2</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="17">
         <v>470.64640000000003</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="33"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="17"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="16"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="26">
         <v>14.414999999999999</v>
       </c>
-      <c r="F17" s="48">
+      <c r="F17" s="27">
         <v>3.3048000000000001E-2</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="17">
         <v>526.49860000000001</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="33"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="17"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="16"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="28">
         <v>3.6496</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="29">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="20">
         <v>340.25060000000002</v>
       </c>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="16"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E19" s="28">
         <v>8.0947999999999993</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="29">
         <v>3.2952000000000002E-2</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="20">
         <v>376.43650000000002</v>
       </c>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="16"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="28">
         <v>5.9261999999999997</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="29">
         <v>3.5013000000000002E-2</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="20">
         <v>377.50200000000001</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="30">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="21">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="15">
         <v>65.978800000000007</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="31"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="15"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="16"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="26">
         <v>2.5964</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="27">
         <v>0.14146</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="17">
         <v>71.052300000000002</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="33"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="17"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="16"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="26">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="27">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="17">
         <v>72.843299999999999</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="33"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="17"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="16"/>
-      <c r="C24" s="34" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="28">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="29">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="20">
         <v>65.978800000000007</v>
       </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="16"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="28">
         <v>2.5964</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="29">
         <v>0.14146</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="20">
         <v>71.052300000000002</v>
       </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="16"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="28">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="29">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="20">
         <v>72.843299999999999</v>
       </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="36"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="16"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="4"/>
+      <c r="C27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="26">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="27">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="17">
         <v>65.978800000000007</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="33"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="17"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="16"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="26">
         <v>2.5964</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="27">
         <v>0.14146</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="17">
         <v>71.052300000000002</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="33"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="17"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="16"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="26">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="27">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="17">
         <v>72.843299999999999</v>
       </c>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="33"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="17"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="16"/>
-      <c r="C30" s="34" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="28">
         <v>2.1362000000000001</v>
       </c>
-      <c r="F30" s="50">
+      <c r="F30" s="29">
         <v>9.2372999999999997E-2</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="20">
         <v>65.978800000000007</v>
       </c>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="36"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="20"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="16"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="28">
         <v>2.5964</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="29">
         <v>0.14146</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="20">
         <v>71.052300000000002</v>
       </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="20"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="16"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="28">
         <v>2.7726000000000002</v>
       </c>
-      <c r="F32" s="50">
+      <c r="F32" s="29">
         <v>0.11527999999999999</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="20">
         <v>72.843299999999999</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="30">
         <v>1.8609</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="21">
         <v>0.12640000000000001</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="15">
         <v>101.5514</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="31"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="15"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="16"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="4"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="26">
         <v>3.2997999999999998</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="27">
         <v>0.14237</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="17">
         <v>116.5962</v>
       </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="33"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="17"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="16"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="26">
         <v>2.9405999999999999</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="27">
         <v>0.1394</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="17">
         <v>119.0668</v>
       </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="33"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="17"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="16"/>
-      <c r="C36" s="34" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="28">
         <v>1.9263999999999999</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="29">
         <v>0.11772000000000001</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="20">
         <v>80.543899999999994</v>
       </c>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="20"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="16"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="28">
         <v>3.2997999999999998</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="29">
         <v>0.14237</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="20">
         <v>86.921999999999997</v>
       </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="36"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="20"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="16"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
+      <c r="B38" s="4"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="28">
         <v>2.1882999999999999</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="29">
         <v>0.62268000000000001</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="20">
         <v>85.293800000000005</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="36"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="20"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="16"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E39" s="31">
         <v>2.1621999999999999</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="27">
         <v>0.11391</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="17">
         <v>87.649900000000002</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="33"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="17"/>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="16"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E40" s="31">
         <v>4.3025000000000002</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="27">
         <v>0.13730000000000001</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="17">
         <v>87.494</v>
       </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="33"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="17"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="16"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E41" s="31">
         <v>3.7422</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="27">
         <v>0.12828000000000001</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="17">
         <v>85.313400000000001</v>
       </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="33"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="17"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="16"/>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="28">
         <v>1.591</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="29">
         <v>0.12489</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="20">
         <v>81.382900000000006</v>
       </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="49"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="49"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="36"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="20"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="16"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="28">
         <v>3.6429999999999998</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="29">
         <v>0.13492000000000001</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="20">
         <v>93.523799999999994</v>
       </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="36"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="20"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="17"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="23">
         <v>2.2545000000000002</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="24">
         <v>0.13508999999999999</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="25">
         <v>95.116100000000003</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="41"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2345,4 +3831,1261 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:I62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="7" spans="2:9">
+      <c r="F7" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="26">
+        <v>3.859</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2.4822E-2</v>
+      </c>
+      <c r="D8" s="17">
+        <v>388.48140000000001</v>
+      </c>
+      <c r="F8">
+        <f>B8/MAX(B$8:B$19)</f>
+        <v>0.26770724939299345</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H19" si="0">C8/MAX(C$8:C$19)</f>
+        <v>0.49312619198982838</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.73785837227297468</v>
+      </c>
+      <c r="I8">
+        <f>SUM(F8:H8)</f>
+        <v>1.4986918136557965</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="26">
+        <v>7.6723999999999997</v>
+      </c>
+      <c r="C9" s="27">
+        <v>5.0335999999999999E-2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>399.46539999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F19" si="1">B9/MAX(B$8:B$19)</f>
+        <v>0.53225112729795354</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.75872072594305096</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I48" si="2">SUM(F9:H9)</f>
+        <v>2.2909718532410044</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="26">
+        <v>4.6116999999999999</v>
+      </c>
+      <c r="C10" s="27">
+        <v>3.6281000000000001E-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>407.48869999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.31992369060006937</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.72077638270820088</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.77395970283681659</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1.8146597761450869</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="28">
+        <v>4.4772999999999996</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2.1264999999999999E-2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>322.2346</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.31060006937218176</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.4224610616656071</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.61203315640345479</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.3450942874412437</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="28">
+        <v>7.6723999999999997</v>
+      </c>
+      <c r="C12" s="29">
+        <v>5.0335999999999999E-2</v>
+      </c>
+      <c r="D12" s="20">
+        <v>417.255</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.53225112729795354</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.79250922984410588</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2.3247603571420594</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="28">
+        <v>10.473699999999999</v>
+      </c>
+      <c r="C13" s="29">
+        <v>3.0270999999999999E-2</v>
+      </c>
+      <c r="D13" s="20">
+        <v>448.44189999999998</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.72658342004856047</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.60137873490146221</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.85174376532055351</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.1797059202705764</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="26">
+        <v>4.9025999999999996</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2.1264999999999999E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>334.4255</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.34010405827263268</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.4224610616656071</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.63518782386126005</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.3977529437994998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="26">
+        <v>8.7561999999999998</v>
+      </c>
+      <c r="C15" s="27">
+        <v>3.2952000000000002E-2</v>
+      </c>
+      <c r="D15" s="17">
+        <v>470.64640000000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.60743669788414845</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.65464081373172289</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.89391766663767014</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.1559951782535416</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="26">
+        <v>14.414999999999999</v>
+      </c>
+      <c r="C16" s="27">
+        <v>3.3048000000000001E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>526.49860000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.65654799745708836</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.6565479974570883</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="28">
+        <v>3.6496</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="D17" s="20">
+        <v>340.25060000000002</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.25318071453347207</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.4688493324856961</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.64625167094461411</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>1.3682817179637823</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="28">
+        <v>8.0947999999999993</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3.2952000000000002E-2</v>
+      </c>
+      <c r="D18" s="20">
+        <v>376.43650000000002</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.56155393687131461</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.65464081373172289</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.71498100849650881</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>1.9311757590995464</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="28">
+        <v>5.9261999999999997</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3.5013000000000002E-2</v>
+      </c>
+      <c r="D19" s="20">
+        <v>377.50200000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.41111342351716962</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.69558566433566438</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.71700475556820098</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>1.8237038434210349</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="F21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="30">
+        <v>2.1362000000000001</v>
+      </c>
+      <c r="C22" s="21">
+        <v>9.2372999999999997E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>65.978800000000007</v>
+      </c>
+      <c r="F22">
+        <f>B22/MAX(B$22:B$33)</f>
+        <v>0.77046815263651447</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:H22" si="3">C22/MAX(C$22:C$33)</f>
+        <v>0.65299731372826242</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.90576346760786519</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2.329228933972642</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="26">
+        <v>2.5964</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.14146</v>
+      </c>
+      <c r="D23" s="17">
+        <v>71.052300000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F33" si="4">B23/MAX(B$22:B$33)</f>
+        <v>0.93644954194618768</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G33" si="5">C23/MAX(C$22:C$33)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:H33" si="6">D23/MAX(D$22:D$33)</f>
+        <v>0.97541297552417316</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2.911862517470361</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="26">
+        <v>2.7726000000000002</v>
+      </c>
+      <c r="C24" s="27">
+        <v>0.11527999999999999</v>
+      </c>
+      <c r="D24" s="17">
+        <v>72.843299999999999</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>0.81493001555209943</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>2.8149300155520995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="28">
+        <v>2.1362000000000001</v>
+      </c>
+      <c r="C25" s="29">
+        <v>9.2372999999999997E-2</v>
+      </c>
+      <c r="D25" s="20">
+        <v>65.978800000000007</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.77046815263651447</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.65299731372826242</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0.90576346760786519</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2.329228933972642</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="28">
+        <v>2.5964</v>
+      </c>
+      <c r="C26" s="29">
+        <v>0.14146</v>
+      </c>
+      <c r="D26" s="20">
+        <v>71.052300000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>0.93644954194618768</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0.97541297552417316</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>2.911862517470361</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="28">
+        <v>2.7726000000000002</v>
+      </c>
+      <c r="C27" s="29">
+        <v>0.11527999999999999</v>
+      </c>
+      <c r="D27" s="20">
+        <v>72.843299999999999</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0.81493001555209943</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2.8149300155520995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="26">
+        <v>2.1362000000000001</v>
+      </c>
+      <c r="C28" s="27">
+        <v>9.2372999999999997E-2</v>
+      </c>
+      <c r="D28" s="17">
+        <v>65.978800000000007</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.77046815263651447</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.65299731372826242</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0.90576346760786519</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>2.329228933972642</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="26">
+        <v>2.5964</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0.14146</v>
+      </c>
+      <c r="D29" s="17">
+        <v>71.052300000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0.93644954194618768</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0.97541297552417316</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>2.911862517470361</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="26">
+        <v>2.7726000000000002</v>
+      </c>
+      <c r="C30" s="27">
+        <v>0.11527999999999999</v>
+      </c>
+      <c r="D30" s="17">
+        <v>72.843299999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>0.81493001555209943</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>2.8149300155520995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="28">
+        <v>2.1362000000000001</v>
+      </c>
+      <c r="C31" s="29">
+        <v>9.2372999999999997E-2</v>
+      </c>
+      <c r="D31" s="20">
+        <v>65.978800000000007</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.77046815263651447</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>0.65299731372826242</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0.90576346760786519</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>2.329228933972642</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="28">
+        <v>2.5964</v>
+      </c>
+      <c r="C32" s="29">
+        <v>0.14146</v>
+      </c>
+      <c r="D32" s="20">
+        <v>71.052300000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>0.93644954194618768</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0.97541297552417316</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>2.911862517470361</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="28">
+        <v>2.7726000000000002</v>
+      </c>
+      <c r="C33" s="29">
+        <v>0.11527999999999999</v>
+      </c>
+      <c r="D33" s="20">
+        <v>72.843299999999999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0.81493001555209943</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>2.8149300155520995</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="30">
+        <v>1.8609</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>101.5514</v>
+      </c>
+      <c r="F37">
+        <f>B37/MAX(B$37:B$48)</f>
+        <v>0.43251597908192907</v>
+      </c>
+      <c r="G37">
+        <f>C37/MAX(C$37:C$48)</f>
+        <v>0.20299351191623308</v>
+      </c>
+      <c r="H37">
+        <f>D37/MAX(D$37:D$48)</f>
+        <v>0.85289434166367117</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.4884038326618332</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="26">
+        <v>3.2997999999999998</v>
+      </c>
+      <c r="C38" s="27">
+        <v>0.14237</v>
+      </c>
+      <c r="D38" s="17">
+        <v>116.5962</v>
+      </c>
+      <c r="F38">
+        <f>B38/MAX(B$37:B$48)</f>
+        <v>0.76694944799535147</v>
+      </c>
+      <c r="G38">
+        <f>C38/MAX(C$37:C$48)</f>
+        <v>0.22864071433159888</v>
+      </c>
+      <c r="H38">
+        <f>D38/MAX(D$37:D$48)</f>
+        <v>0.97925030319114981</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.9748404655181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="26">
+        <v>2.9405999999999999</v>
+      </c>
+      <c r="C39" s="27">
+        <v>0.1394</v>
+      </c>
+      <c r="D39" s="17">
+        <v>119.0668</v>
+      </c>
+      <c r="F39">
+        <f>B39/MAX(B$37:B$48)</f>
+        <v>0.68346310284718181</v>
+      </c>
+      <c r="G39">
+        <f>C39/MAX(C$37:C$48)</f>
+        <v>0.22387100918609878</v>
+      </c>
+      <c r="H39">
+        <f>D39/MAX(D$37:D$48)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>1.9073341120332805</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="28">
+        <v>1.9263999999999999</v>
+      </c>
+      <c r="C40" s="29">
+        <v>0.11772000000000001</v>
+      </c>
+      <c r="D40" s="20">
+        <v>80.543899999999994</v>
+      </c>
+      <c r="F40">
+        <f>B40/MAX(B$37:B$48)</f>
+        <v>0.44773968622893662</v>
+      </c>
+      <c r="G40">
+        <f>C40/MAX(C$37:C$48)</f>
+        <v>0.18905376758527656</v>
+      </c>
+      <c r="H40">
+        <f>D40/MAX(D$37:D$48)</f>
+        <v>0.67645976880205061</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1.3132532226162636</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="28">
+        <v>3.2997999999999998</v>
+      </c>
+      <c r="C41" s="29">
+        <v>0.14237</v>
+      </c>
+      <c r="D41" s="20">
+        <v>86.921999999999997</v>
+      </c>
+      <c r="F41">
+        <f>B41/MAX(B$37:B$48)</f>
+        <v>0.76694944799535147</v>
+      </c>
+      <c r="G41">
+        <f>C41/MAX(C$37:C$48)</f>
+        <v>0.22864071433159888</v>
+      </c>
+      <c r="H41">
+        <f>D41/MAX(D$37:D$48)</f>
+        <v>0.73002717802107719</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>1.7256173403480275</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="28">
+        <v>2.1882999999999999</v>
+      </c>
+      <c r="C42" s="29">
+        <v>0.62268000000000001</v>
+      </c>
+      <c r="D42" s="20">
+        <v>85.293800000000005</v>
+      </c>
+      <c r="F42">
+        <f>B42/MAX(B$37:B$48)</f>
+        <v>0.50861127251597904</v>
+      </c>
+      <c r="G42">
+        <f>C42/MAX(C$37:C$48)</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>D42/MAX(D$37:D$48)</f>
+        <v>0.71635250128499295</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>2.224963773800972</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="31">
+        <v>2.1621999999999999</v>
+      </c>
+      <c r="C43" s="27">
+        <v>0.11391</v>
+      </c>
+      <c r="D43" s="17">
+        <v>87.649900000000002</v>
+      </c>
+      <c r="F43">
+        <f>B43/MAX(B$37:B$48)</f>
+        <v>0.5025450319581638</v>
+      </c>
+      <c r="G43">
+        <f>C43/MAX(C$37:C$48)</f>
+        <v>0.18293505492387743</v>
+      </c>
+      <c r="H43">
+        <f>D43/MAX(D$37:D$48)</f>
+        <v>0.7361405530340952</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>1.4216206399161364</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="31">
+        <v>4.3025000000000002</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="D44" s="17">
+        <v>87.494</v>
+      </c>
+      <c r="F44">
+        <f>B44/MAX(B$37:B$48)</f>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>C44/MAX(C$37:C$48)</f>
+        <v>0.22049849039635125</v>
+      </c>
+      <c r="H44">
+        <f>D44/MAX(D$37:D$48)</f>
+        <v>0.73483120399641211</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>1.9553296943927632</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="31">
+        <v>3.7422</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0.12828000000000001</v>
+      </c>
+      <c r="D45" s="17">
+        <v>85.313400000000001</v>
+      </c>
+      <c r="F45">
+        <f>B45/MAX(B$37:B$48)</f>
+        <v>0.86977338756536893</v>
+      </c>
+      <c r="G45">
+        <f>C45/MAX(C$37:C$48)</f>
+        <v>0.20601271921372133</v>
+      </c>
+      <c r="H45">
+        <f>D45/MAX(D$37:D$48)</f>
+        <v>0.71651711476246949</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1.7923032215415597</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="28">
+        <v>1.591</v>
+      </c>
+      <c r="C46" s="29">
+        <v>0.12489</v>
+      </c>
+      <c r="D46" s="20">
+        <v>81.382900000000006</v>
+      </c>
+      <c r="F46">
+        <f>B46/MAX(B$37:B$48)</f>
+        <v>0.36978500871586284</v>
+      </c>
+      <c r="G46">
+        <f>C46/MAX(C$37:C$48)</f>
+        <v>0.20056851031027173</v>
+      </c>
+      <c r="H46">
+        <f>D46/MAX(D$37:D$48)</f>
+        <v>0.68350623347566242</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>1.2538597525017972</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="28">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="C47" s="29">
+        <v>0.13492000000000001</v>
+      </c>
+      <c r="D47" s="20">
+        <v>93.523799999999994</v>
+      </c>
+      <c r="F47">
+        <f>B47/MAX(B$37:B$48)</f>
+        <v>0.84671702498547352</v>
+      </c>
+      <c r="G47">
+        <f>C47/MAX(C$37:C$48)</f>
+        <v>0.2166763024346374</v>
+      </c>
+      <c r="H47">
+        <f>D47/MAX(D$37:D$48)</f>
+        <v>0.78547336453150662</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>1.8488666919516175</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="23">
+        <v>2.2545000000000002</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0.13508999999999999</v>
+      </c>
+      <c r="D48" s="25">
+        <v>95.116100000000003</v>
+      </c>
+      <c r="F48">
+        <f>B48/MAX(B$37:B$48)</f>
+        <v>0.52399767576990119</v>
+      </c>
+      <c r="G48">
+        <f>C48/MAX(C$37:C$48)</f>
+        <v>0.21694931586047406</v>
+      </c>
+      <c r="H48">
+        <f>D48/MAX(D$37:D$48)</f>
+        <v>0.79884652984711102</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>1.5397935214774863</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9">
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9">
+      <c r="F51">
+        <f>(F8+F22+F37)/3</f>
+        <v>0.49023046037047902</v>
+      </c>
+      <c r="G51">
+        <f>(G8+G22+G37)/3</f>
+        <v>0.44970567254477462</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ref="G51:I51" si="7">(H8+H22+H37)/3</f>
+        <v>0.83217206051483705</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:I62" si="8">SUM(F51:H51)</f>
+        <v>1.7721081934300906</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9">
+      <c r="F52">
+        <f t="shared" ref="F52:I52" si="9">(F9+F23+F38)/3</f>
+        <v>0.74521670574649745</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>0.74288023811053294</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>0.90446133488612468</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>2.392558278743155</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9">
+      <c r="F53">
+        <f t="shared" ref="F53:I53" si="10">(F10+F24+F39)/3</f>
+        <v>0.66779559781575026</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="10"/>
+        <v>0.58652580248213304</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>0.92465323427893897</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="8"/>
+        <v>2.1789746345768224</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9">
+      <c r="F54">
+        <f t="shared" ref="F54:I54" si="11">(F11+F25+F40)/3</f>
+        <v>0.50960263607921097</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="11"/>
+        <v>0.42150404765971539</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="11"/>
+        <v>0.73141879760445683</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="8"/>
+        <v>1.6625254813433832</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9">
+      <c r="F55">
+        <f t="shared" ref="F55:I55" si="12">(F12+F26+F41)/3</f>
+        <v>0.74521670574649745</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="12"/>
+        <v>0.74288023811053294</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="12"/>
+        <v>0.83264979446311871</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="8"/>
+        <v>2.3207467383201492</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9">
+      <c r="F56">
+        <f t="shared" ref="F56:I56" si="13">(F13+F27+F42)/3</f>
+        <v>0.74506489752151328</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="13"/>
+        <v>0.80543625015118714</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="13"/>
+        <v>0.85603208886851545</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="8"/>
+        <v>2.406533236541216</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9">
+      <c r="F57">
+        <f t="shared" ref="F57:I57" si="14">(F14+F28+F43)/3</f>
+        <v>0.53770574762243706</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="14"/>
+        <v>0.41946447677258236</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="14"/>
+        <v>0.75903061483440692</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="8"/>
+        <v>1.7162008392294263</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9">
+      <c r="F58">
+        <f t="shared" ref="F58:I58" si="15">(F15+F29+F44)/3</f>
+        <v>0.84796207994344541</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="15"/>
+        <v>0.62504643470935806</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="15"/>
+        <v>0.86805394871941843</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="8"/>
+        <v>2.3410624633722219</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9">
+      <c r="F59">
+        <f t="shared" ref="F59:I59" si="16">(F16+F30+F45)/3</f>
+        <v>0.95659112918845635</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="16"/>
+        <v>0.55916357740763634</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="16"/>
+        <v>0.90550570492082316</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="8"/>
+        <v>2.4212604115169158</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9">
+      <c r="F60">
+        <f t="shared" ref="F60:I60" si="17">(F17+F31+F46)/3</f>
+        <v>0.46447795862861652</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="17"/>
+        <v>0.44080505217474336</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="17"/>
+        <v>0.74517379067604717</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="8"/>
+        <v>1.650456801479407</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9">
+      <c r="F61">
+        <f t="shared" ref="F61:I61" si="18">(F18+F32+F47)/3</f>
+        <v>0.78157350126765868</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="18"/>
+        <v>0.62377237205545344</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="18"/>
+        <v>0.82528911618406298</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>2.2306349895071751</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9">
+      <c r="F62">
+        <f t="shared" ref="F62:I62" si="19">(F19+F33+F48)/3</f>
+        <v>0.64503703309569027</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="19"/>
+        <v>0.57582166524941258</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="19"/>
+        <v>0.83861709513843741</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>2.0594757934835402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>